--- a/src/assets/files/AuthorArranger Example Long.xlsx
+++ b/src/assets/files/AuthorArranger Example Long.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
-    <sheet name="Template" sheetId="2" r:id="rId2"/>
+    <sheet name="Authors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -646,7 +646,7 @@
   <dimension ref="A1:H433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
